--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10EBA1A-A162-4DE6-84FA-FBCFEC68EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -349,10 +359,6 @@
   <si>
     <t>rateChangeFacmNoRange</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,TellerNo,TxSeq,CustNo,FacmNo,BormNo,EffectDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LoanBorMain(CustNo,FacmNo,BormNo)</t>
@@ -392,11 +398,15 @@
     <t>RateCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AcDate,TellerNo,TxtNo,CustNo,FacmNo,BormNo,EffectDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -737,6 +747,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -772,6 +799,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -947,11 +991,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1068,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>50</v>
@@ -1042,7 +1086,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="21"/>
@@ -1201,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1211,10 +1255,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>63</v>
@@ -1223,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -1256,7 +1300,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>57</v>
@@ -1265,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1531,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanRateChange.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10EBA1A-A162-4DE6-84FA-FBCFEC68EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB40802C-A640-46FD-9DCA-00A81DD800CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y:是 N:否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunNm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -370,14 +366,6 @@
   </si>
   <si>
     <t>利率區分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-01: 保單分紅利率
-02: 中華郵政二年期定儲機動利率
-99: 自訂利率
-階梯式利率時可能與主檔不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,20 +374,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RateCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,TellerNo,TxtNo,CustNo,FacmNo,BormNo,EffectDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>共用代碼檔
-1: 機動 
-2: 固動 
-3: 定期機動
+1:機動 
+2:固動 
+3:定期機動
 同撥款主檔指數型階梯式利率的固定利率與撥款主檔不同
 (ex.中華郵政二年期定儲機動利率)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RateCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,TellerNo,TxtNo,CustNo,FacmNo,BormNo,EffectDate</t>
+    <t>共用代碼檔
+01:保單分紅利率
+02:中華郵政二年期定儲機動利率
+99:自訂利率
+階梯式利率時可能與主檔不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1016,10 +1017,10 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
@@ -1050,7 +1051,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>32</v>
@@ -1068,10 +1069,10 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="21"/>
@@ -1153,13 +1154,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4">
         <v>7</v>
@@ -1173,13 +1174,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -1193,13 +1194,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
@@ -1213,13 +1214,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
@@ -1233,19 +1234,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1255,13 +1256,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1277,13 +1278,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="17">
         <v>5</v>
@@ -1297,41 +1298,41 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -1341,13 +1342,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4">
         <v>6</v>
@@ -1364,13 +1365,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4">
         <v>6</v>
@@ -1387,13 +1388,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4">
         <v>6</v>
@@ -1410,13 +1411,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="4">
         <v>60</v>
@@ -1430,13 +1431,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4">
         <v>8</v>
@@ -1450,13 +1451,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4">
         <v>6</v>
@@ -1470,13 +1471,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="4">
         <v>8</v>
@@ -1490,13 +1491,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="5"/>
@@ -1507,13 +1508,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="4">
         <v>6</v>
@@ -1527,13 +1528,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="5"/>
@@ -1544,13 +1545,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="4">
         <v>6</v>
@@ -1593,7 +1594,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -1604,73 +1605,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
